--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flinders-my.sharepoint.com/personal/ocon0143_flinders_edu_au/Documents/Advn Mech Design Shared/6_Development/2_Design/inventor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC10484DE15D55125ADE58E9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{12EE1596-606B-440C-BDB1-0D14903CC1F9}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="11_F25DC773A252ABDACC10484DE15D55125ADE58E9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{83FD0ADA-C727-4E7A-A31D-4FDB2E139160}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="4455" windowWidth="24060" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40125" yWindow="285" windowWidth="24060" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>testLength</t>
   </si>
@@ -49,6 +49,159 @@
   </si>
   <si>
     <t>Test Height (ignore)</t>
+  </si>
+  <si>
+    <t>rack_tooth_face_widh</t>
+  </si>
+  <si>
+    <t>rack_tooth_thickness</t>
+  </si>
+  <si>
+    <t>rack_tooth_addendum</t>
+  </si>
+  <si>
+    <t>rack_tooth_dedendum</t>
+  </si>
+  <si>
+    <t>See tooth diagram</t>
+  </si>
+  <si>
+    <t>hoop_radius_large</t>
+  </si>
+  <si>
+    <t>The hoop slider radius</t>
+  </si>
+  <si>
+    <t>hoop_width_large</t>
+  </si>
+  <si>
+    <t>hoop_thickness_large</t>
+  </si>
+  <si>
+    <t>The width (aka diameter) of large hoop</t>
+  </si>
+  <si>
+    <t>The thickness (outter - inner diams) of large hoop</t>
+  </si>
+  <si>
+    <t>hoop_thickness_small</t>
+  </si>
+  <si>
+    <t>hoop_width_small</t>
+  </si>
+  <si>
+    <t>hoop_width_medium</t>
+  </si>
+  <si>
+    <t>hoop_thickness_medium</t>
+  </si>
+  <si>
+    <t>The width (aka diameter) of small hoop</t>
+  </si>
+  <si>
+    <t>The thickness (outter - inner diams) of small hoop</t>
+  </si>
+  <si>
+    <t>The width (aka diameter) of medium hoop</t>
+  </si>
+  <si>
+    <t>The thickness (outter - inner diams) of medium hoop</t>
+  </si>
+  <si>
+    <t>hoop_height_large</t>
+  </si>
+  <si>
+    <t>hoop_height_medium</t>
+  </si>
+  <si>
+    <t>hoop_height_small</t>
+  </si>
+  <si>
+    <t>hoop_length_large</t>
+  </si>
+  <si>
+    <t>hoop_length_medium</t>
+  </si>
+  <si>
+    <t>hoop_length_small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The horizontal length of the large hoop </t>
+  </si>
+  <si>
+    <t>The vertical height of the large hoop from the base</t>
+  </si>
+  <si>
+    <t>The vertical height of the medium hoop from the base</t>
+  </si>
+  <si>
+    <t>The vertical height of the small hoop from the base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The horizontal length of the medium hoop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The horizontal length of the small hoop </t>
+  </si>
+  <si>
+    <t>cover_width_main</t>
+  </si>
+  <si>
+    <t>The width of the cover from open side to closed side</t>
+  </si>
+  <si>
+    <t>cover_height_main</t>
+  </si>
+  <si>
+    <t>The height of the cover from base side to ceiling</t>
+  </si>
+  <si>
+    <t>cover_length_main</t>
+  </si>
+  <si>
+    <t>The length of the cover in the x-direction from front of car to back</t>
+  </si>
+  <si>
+    <t>cover_shell_thickness</t>
+  </si>
+  <si>
+    <t>the thickness of the top surface of the cover</t>
+  </si>
+  <si>
+    <t>cover_base_thickness</t>
+  </si>
+  <si>
+    <t>the thickness of the base plate of the cover</t>
+  </si>
+  <si>
+    <t>cover_mountHole_diameter</t>
+  </si>
+  <si>
+    <t>the diameter of the hole that bolts into the clamping device</t>
+  </si>
+  <si>
+    <t>cover_mountHole_xSpacing</t>
+  </si>
+  <si>
+    <t>cover_mountHole_ySpacing</t>
+  </si>
+  <si>
+    <t>the distance between the mountHoles in the x-dir. This corresponds to the spacing of the roof bars.</t>
+  </si>
+  <si>
+    <t>the distance between the mountHoles in the y-dir. This corresponds with the spacing between clamps on each roof bar.</t>
+  </si>
+  <si>
+    <t>cover_side_thickness</t>
+  </si>
+  <si>
+    <t>The thickness of the side of the cover</t>
+  </si>
+  <si>
+    <t>cover_side_openSize</t>
+  </si>
+  <si>
+    <t>The characteristic maximum length of the opening of the cover side</t>
   </si>
 </sst>
 </file>
@@ -84,8 +237,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,17 +522,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="100.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -387,7 +543,7 @@
       <c r="B1">
         <v>1.7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
@@ -401,7 +557,7 @@
       <c r="B2">
         <v>1.5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -415,11 +571,389 @@
       <c r="B3">
         <v>1000</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3300</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>450</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>900</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>900</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>300</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>700</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>700</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>1200</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>600</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>1400</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>900</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>550</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flinders-my.sharepoint.com/personal/ocon0143_flinders_edu_au/Documents/Advn Mech Design Shared/6_Development/2_Design/inventor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocon0143\OneDrive - Flinders\Advn Mech Design Shared\6_Development\2_Design\inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_F25DC773A252ABDACC10484DE15D55125ADE58E9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{83FD0ADA-C727-4E7A-A31D-4FDB2E139160}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC10484DE15D55125ADE58E9" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{3897CE77-0BF8-45C5-B2F2-904289A455EC}"/>
   <bookViews>
     <workbookView xWindow="40125" yWindow="285" windowWidth="24060" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -821,7 +821,7 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -849,7 +849,7 @@
         <v>43</v>
       </c>
       <c r="B23">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocon0143\OneDrive - Flinders\Advn Mech Design Shared\6_Development\2_Design\inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC10484DE15D55125ADE58E9" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{3897CE77-0BF8-45C5-B2F2-904289A455EC}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="11_F25DC773A252ABDACC10484DE15D55125ADE58E9" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{B05DFCC6-0311-469C-BCCE-7946870EB1B1}"/>
   <bookViews>
     <workbookView xWindow="40125" yWindow="285" windowWidth="24060" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>testLength</t>
   </si>
@@ -202,6 +202,51 @@
   </si>
   <si>
     <t>The characteristic maximum length of the opening of the cover side</t>
+  </si>
+  <si>
+    <t>hoop_bearing_length</t>
+  </si>
+  <si>
+    <t>The Degrees of a full circle that the bearing is</t>
+  </si>
+  <si>
+    <t>secure_arm_length</t>
+  </si>
+  <si>
+    <t>secure_arm_radii</t>
+  </si>
+  <si>
+    <t>The length of the arm that connects to the wheelchair axle</t>
+  </si>
+  <si>
+    <t>secure_arm_hold_thickness</t>
+  </si>
+  <si>
+    <t>The radius of the holder to the wheelchair axle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The thickness of the holder to the wheelchair axle </t>
+  </si>
+  <si>
+    <t>secure_arm_thickness</t>
+  </si>
+  <si>
+    <t>The thickness of the arm that connects to the wheelchair axle</t>
+  </si>
+  <si>
+    <t>secure_arm_hold_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The length of the holder to the wheelchair axle </t>
+  </si>
+  <si>
+    <t>secure_arm_angle</t>
+  </si>
+  <si>
+    <t>The angle of the holder to the arm</t>
+  </si>
+  <si>
+    <t>deg</t>
   </si>
 </sst>
 </file>
@@ -522,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,6 +1001,104 @@
         <v>58</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <v>400</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocon0143\OneDrive - Flinders\Advn Mech Design Shared\6_Development\2_Design\inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="11_F25DC773A252ABDACC10484DE15D55125ADE58E9" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{B05DFCC6-0311-469C-BCCE-7946870EB1B1}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="11_F25DC773A252ABDACC10484DE15D55125ADE58E9" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{C18CA172-C22E-4A0E-9085-A25D456E277B}"/>
   <bookViews>
     <workbookView xWindow="40125" yWindow="285" windowWidth="24060" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,47 +25,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>testLength</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Test length (ignore)</t>
+  </si>
+  <si>
     <t>testWidth</t>
   </si>
   <si>
+    <t>Test Width (ignore)</t>
+  </si>
+  <si>
     <t>testHeight</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
-    <t>Test length (ignore)</t>
-  </si>
-  <si>
-    <t>Test Width (ignore)</t>
-  </si>
-  <si>
     <t>Test Height (ignore)</t>
   </si>
   <si>
+    <t>rack_tooth_thickness</t>
+  </si>
+  <si>
+    <t>See tooth diagram</t>
+  </si>
+  <si>
     <t>rack_tooth_face_widh</t>
   </si>
   <si>
-    <t>rack_tooth_thickness</t>
-  </si>
-  <si>
     <t>rack_tooth_addendum</t>
   </si>
   <si>
     <t>rack_tooth_dedendum</t>
   </si>
   <si>
-    <t>See tooth diagram</t>
-  </si>
-  <si>
     <t>hoop_radius_large</t>
   </si>
   <si>
@@ -75,72 +75,72 @@
     <t>hoop_width_large</t>
   </si>
   <si>
+    <t>The width (aka diameter) of large hoop</t>
+  </si>
+  <si>
     <t>hoop_thickness_large</t>
   </si>
   <si>
-    <t>The width (aka diameter) of large hoop</t>
-  </si>
-  <si>
     <t>The thickness (outter - inner diams) of large hoop</t>
   </si>
   <si>
+    <t>hoop_width_medium</t>
+  </si>
+  <si>
+    <t>The width (aka diameter) of medium hoop</t>
+  </si>
+  <si>
+    <t>hoop_thickness_medium</t>
+  </si>
+  <si>
+    <t>The thickness (outter - inner diams) of medium hoop</t>
+  </si>
+  <si>
+    <t>hoop_width_small</t>
+  </si>
+  <si>
+    <t>The width (aka diameter) of small hoop</t>
+  </si>
+  <si>
     <t>hoop_thickness_small</t>
   </si>
   <si>
-    <t>hoop_width_small</t>
-  </si>
-  <si>
-    <t>hoop_width_medium</t>
-  </si>
-  <si>
-    <t>hoop_thickness_medium</t>
-  </si>
-  <si>
-    <t>The width (aka diameter) of small hoop</t>
-  </si>
-  <si>
     <t>The thickness (outter - inner diams) of small hoop</t>
   </si>
   <si>
-    <t>The width (aka diameter) of medium hoop</t>
-  </si>
-  <si>
-    <t>The thickness (outter - inner diams) of medium hoop</t>
-  </si>
-  <si>
     <t>hoop_height_large</t>
   </si>
   <si>
+    <t>The vertical height of the large hoop from the base</t>
+  </si>
+  <si>
     <t>hoop_height_medium</t>
   </si>
   <si>
+    <t>The vertical height of the medium hoop from the base</t>
+  </si>
+  <si>
     <t>hoop_height_small</t>
   </si>
   <si>
+    <t>The vertical height of the small hoop from the base</t>
+  </si>
+  <si>
     <t>hoop_length_large</t>
   </si>
   <si>
+    <t xml:space="preserve">The horizontal length of the large hoop </t>
+  </si>
+  <si>
     <t>hoop_length_medium</t>
   </si>
   <si>
+    <t xml:space="preserve">The horizontal length of the medium hoop </t>
+  </si>
+  <si>
     <t>hoop_length_small</t>
   </si>
   <si>
-    <t xml:space="preserve">The horizontal length of the large hoop </t>
-  </si>
-  <si>
-    <t>The vertical height of the large hoop from the base</t>
-  </si>
-  <si>
-    <t>The vertical height of the medium hoop from the base</t>
-  </si>
-  <si>
-    <t>The vertical height of the small hoop from the base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The horizontal length of the medium hoop </t>
-  </si>
-  <si>
     <t xml:space="preserve">The horizontal length of the small hoop </t>
   </si>
   <si>
@@ -183,12 +183,12 @@
     <t>cover_mountHole_xSpacing</t>
   </si>
   <si>
+    <t>the distance between the mountHoles in the x-dir. This corresponds to the spacing of the roof bars.</t>
+  </si>
+  <si>
     <t>cover_mountHole_ySpacing</t>
   </si>
   <si>
-    <t>the distance between the mountHoles in the x-dir. This corresponds to the spacing of the roof bars.</t>
-  </si>
-  <si>
     <t>the distance between the mountHoles in the y-dir. This corresponds with the spacing between clamps on each roof bar.</t>
   </si>
   <si>
@@ -207,24 +207,33 @@
     <t>hoop_bearing_length</t>
   </si>
   <si>
+    <t>deg</t>
+  </si>
+  <si>
     <t>The Degrees of a full circle that the bearing is</t>
   </si>
   <si>
     <t>secure_arm_length</t>
   </si>
   <si>
+    <t>The length of the arm that connects to the wheelchair axle</t>
+  </si>
+  <si>
     <t>secure_arm_radii</t>
   </si>
   <si>
-    <t>The length of the arm that connects to the wheelchair axle</t>
+    <t>The radius of the holder to the wheelchair axle</t>
+  </si>
+  <si>
+    <t>secure_arm_hold_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The length of the holder to the wheelchair axle </t>
   </si>
   <si>
     <t>secure_arm_hold_thickness</t>
   </si>
   <si>
-    <t>The radius of the holder to the wheelchair axle</t>
-  </si>
-  <si>
     <t xml:space="preserve">The thickness of the holder to the wheelchair axle </t>
   </si>
   <si>
@@ -234,19 +243,22 @@
     <t>The thickness of the arm that connects to the wheelchair axle</t>
   </si>
   <si>
-    <t>secure_arm_hold_length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The length of the holder to the wheelchair axle </t>
-  </si>
-  <si>
     <t>secure_arm_angle</t>
   </si>
   <si>
     <t>The angle of the holder to the arm</t>
   </si>
   <si>
-    <t>deg</t>
+    <t>hoop_cable_diam</t>
+  </si>
+  <si>
+    <t>The diameter of the steel cable used to actuate the small hoop</t>
+  </si>
+  <si>
+    <t>hoop_cable_pulley_diam</t>
+  </si>
+  <si>
+    <t>The diamter of the pulley used in the medium hoop to reduce cable wear</t>
   </si>
 </sst>
 </file>
@@ -567,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,35 +601,35 @@
         <v>1.7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1.5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -625,58 +637,58 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,7 +699,7 @@
         <v>3300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -701,21 +713,21 @@
         <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -723,58 +735,58 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,77 +797,77 @@
         <v>450</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>200</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>700</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>700</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -869,7 +881,7 @@
         <v>1400</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
@@ -883,7 +895,7 @@
         <v>600</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
@@ -897,7 +909,7 @@
         <v>1600</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
@@ -911,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
@@ -925,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
@@ -939,7 +951,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>50</v>
@@ -953,21 +965,21 @@
         <v>900</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>550</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
         <v>54</v>
@@ -981,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>56</v>
@@ -995,7 +1007,7 @@
         <v>1000</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
         <v>58</v>
@@ -1009,52 +1021,52 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B32">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B34">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,41 +1074,69 @@
         <v>64</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
         <v>67</v>
-      </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
         <v>71</v>
       </c>
-      <c r="B37">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39">
         <v>20</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
         <v>73</v>
-      </c>
-      <c r="D37" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocon0143\OneDrive - Flinders\Advn Mech Design Shared\6_Development\2_Design\inventor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flinders-my.sharepoint.com/personal/ocon0143_flinders_edu_au/Documents/Advn Mech Design Shared/6_Development/2_Design/inventor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="11_F25DC773A252ABDACC10484DE15D55125ADE58E9" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{C18CA172-C22E-4A0E-9085-A25D456E277B}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="11_F25DC773A252ABDACC10484DE15D55125ADE58E9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{684DF0D7-5BA6-4617-AD2F-A7FBC0BEA2D2}"/>
   <bookViews>
-    <workbookView xWindow="40125" yWindow="285" windowWidth="24060" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
   <si>
     <t>testLength</t>
   </si>
@@ -259,6 +259,120 @@
   </si>
   <si>
     <t>The diamter of the pulley used in the medium hoop to reduce cable wear</t>
+  </si>
+  <si>
+    <t>hoop_offset_x</t>
+  </si>
+  <si>
+    <t>The distance from the front mounting hole in the x direction to the centre of the hoop support</t>
+  </si>
+  <si>
+    <t>support_frame_endHoleBuffer</t>
+  </si>
+  <si>
+    <t>The length of material that is between the end holes of the frame member and the end of the member</t>
+  </si>
+  <si>
+    <t>support_frame_clampHoleSpacing</t>
+  </si>
+  <si>
+    <t>The distance that the holes are on the support frame to accommodate the clamp holes</t>
+  </si>
+  <si>
+    <t>support_frame_squareBarDimension</t>
+  </si>
+  <si>
+    <t>The L and W of the square bar used for the support frame part</t>
+  </si>
+  <si>
+    <t>support_baseClamp_thickness</t>
+  </si>
+  <si>
+    <t>The thickness of the clamp that is to fit around the square bar</t>
+  </si>
+  <si>
+    <t>support_frame_length</t>
+  </si>
+  <si>
+    <t>The length of the square bar</t>
+  </si>
+  <si>
+    <t>support_baseClamp_lengthBuffer</t>
+  </si>
+  <si>
+    <t>The amount of material that extends axially along the ends of the base clamp from the hole edge to the end of the part</t>
+  </si>
+  <si>
+    <t>support_frame_clampHoleDiameter</t>
+  </si>
+  <si>
+    <t>The diameter of the cl;amping hole coonnecting the base part to the support frame</t>
+  </si>
+  <si>
+    <t>support_baseClamp_sleeveThickness</t>
+  </si>
+  <si>
+    <t>support_baseClamp_sleeveHoleDiameter</t>
+  </si>
+  <si>
+    <t>The diameter of the holes that hold the pins constraining the sleeve to the hoop</t>
+  </si>
+  <si>
+    <t>The thickness of the sleeve holding the hoop</t>
+  </si>
+  <si>
+    <t>hoop_angle_z</t>
+  </si>
+  <si>
+    <t>The angle about the z axis from the y axis of the car that the hoop direction points</t>
+  </si>
+  <si>
+    <t>support_baseClamp_sleeveSweepTerminationAngle</t>
+  </si>
+  <si>
+    <t>The angular displacement of the hoop sleeve sweep arc from the horizontal</t>
+  </si>
+  <si>
+    <t>support_baseClamp_platformThickness</t>
+  </si>
+  <si>
+    <t>The thickness of the steel plate that is welded onto the top of the baseClamp</t>
+  </si>
+  <si>
+    <t>support_baseClamp_platformLengthBuffer</t>
+  </si>
+  <si>
+    <t>The amount of material that hangs over the side of the clamp in the Length direction</t>
+  </si>
+  <si>
+    <t>The amount of material that hangs over the side of the clamp in the width direction</t>
+  </si>
+  <si>
+    <t>support_baseClamp_platformWidthBuffer</t>
+  </si>
+  <si>
+    <t>support_baseClamp_sleeve_hole1Height</t>
+  </si>
+  <si>
+    <t>support_baseClamp_sleeve_hole2Height</t>
+  </si>
+  <si>
+    <t>The height off the platform that the first lateral pin hole is situated</t>
+  </si>
+  <si>
+    <t>The height off the platform that the second lateral pin hole is situated</t>
+  </si>
+  <si>
+    <t>support_frame_squareBarThickness</t>
+  </si>
+  <si>
+    <t>The thickness of the square hollow bar in the suport frame</t>
+  </si>
+  <si>
+    <t>support_frame_squareBarFillet</t>
+  </si>
+  <si>
+    <t>The fillet radius of the oiuter edges of the square hollow bar used in the suport frame</t>
   </si>
 </sst>
 </file>
@@ -579,214 +693,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="100.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="110.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B1">
-        <v>1.7</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>1.5</v>
+        <v>900</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>550</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B8">
-        <v>3300</v>
+        <v>1400</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,49 +989,49 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B21">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>1600</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -926,12 +1040,12 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -940,96 +1054,96 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>550</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -1038,77 +1152,77 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B34">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,19 +1241,289 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>55</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47">
         <v>20</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" t="s">
-        <v>73</v>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52">
+        <v>500</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>1000</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>1.7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>1.5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D58">
+    <sortCondition ref="A27:A58"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flinders-my.sharepoint.com/personal/ocon0143_flinders_edu_au/Documents/Advn Mech Design Shared/6_Development/2_Design/inventor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocon0143\OneDrive - Flinders\Advn Mech Design Shared\6_Development\2_Design\inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="335" documentId="11_F25DC773A252ABDACC10484DE15D55125ADE58E9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{684DF0D7-5BA6-4617-AD2F-A7FBC0BEA2D2}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{45E504E0-0E97-41AD-BDB3-960D5C64E952}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="132">
   <si>
     <t>testLength</t>
   </si>
@@ -373,6 +373,54 @@
   </si>
   <si>
     <t>The fillet radius of the oiuter edges of the square hollow bar used in the suport frame</t>
+  </si>
+  <si>
+    <t>hoop_tabs_width</t>
+  </si>
+  <si>
+    <t>The width of the tabs for the hoop connectors (heights are based off this)</t>
+  </si>
+  <si>
+    <t>hoop_tabs_thickness</t>
+  </si>
+  <si>
+    <t>The thickness of the tabs</t>
+  </si>
+  <si>
+    <t>hoop_tabs_hole</t>
+  </si>
+  <si>
+    <t>The hole in the tab for bolts (fillets are based off this)</t>
+  </si>
+  <si>
+    <t>wheelchair_wheel_radius</t>
+  </si>
+  <si>
+    <t>wheelchair_deployed_width</t>
+  </si>
+  <si>
+    <t>The radius of the wheel of the wheelchair</t>
+  </si>
+  <si>
+    <t>The width of the wheelchair when it is fully deployed</t>
+  </si>
+  <si>
+    <t>wheelchair_deployed_length</t>
+  </si>
+  <si>
+    <t>The length of the wheelchair when it is fully deployed</t>
+  </si>
+  <si>
+    <t>The height of the wheelchair when it is fully deployed</t>
+  </si>
+  <si>
+    <t>wheelchair_deployed_height</t>
+  </si>
+  <si>
+    <t>wheelchair_folded_width</t>
+  </si>
+  <si>
+    <t>The width of the wheelchair when it is folded</t>
   </si>
 </sst>
 </file>
@@ -693,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +788,7 @@
         <v>43</v>
       </c>
       <c r="B3">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -838,7 +886,7 @@
         <v>39</v>
       </c>
       <c r="B10">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -1519,8 +1567,120 @@
         <v>4</v>
       </c>
     </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59">
+        <v>50</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62">
+        <v>240</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63">
+        <v>635</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64">
+        <v>1067</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65">
+        <v>914</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66">
+        <v>280</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D58">
+  <sortState ref="A1:D58">
     <sortCondition ref="A27:A58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocon0143\OneDrive - Flinders\Advn Mech Design Shared\6_Development\2_Design\inventor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flinders-my.sharepoint.com/personal/ocon0143_flinders_edu_au/Documents/Advn Mech Design Shared/6_Development/2_Design/inventor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{45E504E0-0E97-41AD-BDB3-960D5C64E952}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C443096-3BF2-4738-B849-E5344F1EF206}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="151">
   <si>
     <t>testLength</t>
   </si>
@@ -421,6 +421,63 @@
   </si>
   <si>
     <t>The width of the wheelchair when it is folded</t>
+  </si>
+  <si>
+    <t>sm_varx_squareBarDimension</t>
+  </si>
+  <si>
+    <t>The width of the square hollow bar used in the securing mechanism X variant</t>
+  </si>
+  <si>
+    <t>sm_varx_squareBarThickness</t>
+  </si>
+  <si>
+    <t>The thickness of the square hollow bar used in the securing mechanism X variant</t>
+  </si>
+  <si>
+    <t>sm_varx_x</t>
+  </si>
+  <si>
+    <t>sm_varx_y</t>
+  </si>
+  <si>
+    <t>sm_varx_z</t>
+  </si>
+  <si>
+    <t>The length of the xm arm in the x</t>
+  </si>
+  <si>
+    <t>The length of the xm arm in the y</t>
+  </si>
+  <si>
+    <t>The length of the xm arm in the z</t>
+  </si>
+  <si>
+    <t>sm_varx_pinPlate_thickness</t>
+  </si>
+  <si>
+    <t>sm_varx_pinPlate_holeDiameter</t>
+  </si>
+  <si>
+    <t>sm_varx_pinPlate_aspectRatio</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>The thickness of the pin plate holding the sm_varx bars together</t>
+  </si>
+  <si>
+    <t>The diameter of the pin hole on the pin plate holding the sm_varx bars together</t>
+  </si>
+  <si>
+    <t>The l/w of the pin plate holding the sm_varx bars together</t>
+  </si>
+  <si>
+    <t>sm_varx_member_tolerance</t>
+  </si>
+  <si>
+    <t>The difference bewteen the outer dimensions of the inner and outer square bars used in the sm_varx</t>
   </si>
 </sst>
 </file>
@@ -741,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,8 +1736,134 @@
         <v>131</v>
       </c>
     </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68">
+        <v>2.5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <v>50</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70">
+        <v>250</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71">
+        <v>150</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75">
+        <v>0.5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:D58">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D58">
     <sortCondition ref="A27:A58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flinders-my.sharepoint.com/personal/ocon0143_flinders_edu_au/Documents/Advn Mech Design Shared/6_Development/2_Design/inventor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocon0143\OneDrive - Flinders\Advn Mech Design Shared\6_Development\2_Design\inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C443096-3BF2-4738-B849-E5344F1EF206}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0512B9A-F0C8-4336-BCFE-998FB36F9C38}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
   <si>
     <t>testLength</t>
   </si>
@@ -478,6 +478,12 @@
   </si>
   <si>
     <t>The difference bewteen the outer dimensions of the inner and outer square bars used in the sm_varx</t>
+  </si>
+  <si>
+    <t>sm_varx_x_arms</t>
+  </si>
+  <si>
+    <t>The x length of the arms that extend from the sm_varx to the wheelchair bars</t>
   </si>
 </sst>
 </file>
@@ -798,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1663,7 @@
         <v>120</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>6</v>
@@ -1797,7 +1803,7 @@
         <v>138</v>
       </c>
       <c r="B71">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>6</v>
@@ -1862,8 +1868,22 @@
         <v>150</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76">
+        <v>50</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D58">
+  <sortState ref="A1:D58">
     <sortCondition ref="A27:A58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocon0143\OneDrive - Flinders\Advn Mech Design Shared\6_Development\2_Design\inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0512B9A-F0C8-4336-BCFE-998FB36F9C38}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{444FDA7E-420F-4840-89D3-CAD5BAAEE90A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1271,7 @@
         <v>72</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>60</v>
@@ -1285,7 +1285,7 @@
         <v>66</v>
       </c>
       <c r="B34">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
@@ -1299,7 +1299,7 @@
         <v>68</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
@@ -1313,7 +1313,7 @@
         <v>62</v>
       </c>
       <c r="B36">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -1341,7 +1341,7 @@
         <v>70</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocon0143\OneDrive - Flinders\Advn Mech Design Shared\6_Development\2_Design\inventor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flinders-my.sharepoint.com/personal/ocon0143_flinders_edu_au/Documents/Advn Mech Design Shared/6_Development/2_Design/inventor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{444FDA7E-420F-4840-89D3-CAD5BAAEE90A}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A08B3AD3-E4D8-4543-B058-7A58B6D58647}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>hoop_radius_large</t>
   </si>
   <si>
-    <t>The hoop slider radius</t>
-  </si>
-  <si>
     <t>hoop_width_large</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>The x length of the arms that extend from the sm_varx to the wheelchair bars</t>
+  </si>
+  <si>
+    <t>The hoop slider radius (actually the diameter, but names wierdly)</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +820,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>10</v>
@@ -829,12 +829,12 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>900</v>
@@ -843,12 +843,12 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>2200</v>
@@ -857,12 +857,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -871,12 +871,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>900</v>
@@ -885,12 +885,12 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>550</v>
@@ -899,12 +899,12 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -913,12 +913,12 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>1400</v>
@@ -927,12 +927,12 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -941,12 +941,12 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>1600</v>
@@ -955,40 +955,40 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
         <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -997,12 +997,12 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -1011,12 +1011,12 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>450</v>
@@ -1025,12 +1025,12 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>450</v>
@@ -1039,12 +1039,12 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>600</v>
@@ -1053,12 +1053,12 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -1067,12 +1067,12 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>700</v>
@@ -1081,12 +1081,12 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>700</v>
@@ -1095,12 +1095,12 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>600</v>
@@ -1109,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,91 +1123,91 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
         <v>17</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
         <v>21</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
         <v>15</v>
-      </c>
-      <c r="B26">
-        <v>80</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
         <v>19</v>
-      </c>
-      <c r="B27">
-        <v>60</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
         <v>23</v>
-      </c>
-      <c r="B28">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,21 +1268,21 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>50</v>
@@ -1291,12 +1291,12 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -1305,12 +1305,12 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36">
         <v>300</v>
@@ -1319,12 +1319,12 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -1333,12 +1333,12 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38">
         <v>30</v>
@@ -1347,12 +1347,12 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>40</v>
@@ -1361,12 +1361,12 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40">
         <v>35</v>
@@ -1375,12 +1375,12 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41">
         <v>15</v>
@@ -1389,12 +1389,12 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1403,12 +1403,12 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43">
         <v>50</v>
@@ -1417,12 +1417,12 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44">
         <v>100</v>
@@ -1431,12 +1431,12 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>12</v>
@@ -1445,26 +1445,26 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46">
         <v>55</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47">
         <v>20</v>
@@ -1473,12 +1473,12 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -1487,12 +1487,12 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -1501,12 +1501,12 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B50">
         <v>100</v>
@@ -1515,12 +1515,12 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51">
         <v>25</v>
@@ -1529,12 +1529,12 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B52">
         <v>500</v>
@@ -1543,12 +1543,12 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53">
         <v>50</v>
@@ -1557,12 +1557,12 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -1571,12 +1571,12 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -1585,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59">
         <v>50</v>
@@ -1641,26 +1641,26 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
         <v>118</v>
-      </c>
-      <c r="B60">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61">
         <v>12</v>
@@ -1669,12 +1669,12 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62">
         <v>240</v>
@@ -1683,12 +1683,12 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63">
         <v>635</v>
@@ -1697,12 +1697,12 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64">
         <v>1067</v>
@@ -1711,12 +1711,12 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B65">
         <v>914</v>
@@ -1725,12 +1725,12 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B66">
         <v>280</v>
@@ -1739,12 +1739,12 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67">
         <v>30</v>
@@ -1753,12 +1753,12 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68">
         <v>2.5</v>
@@ -1767,12 +1767,12 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69">
         <v>50</v>
@@ -1781,12 +1781,12 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70">
         <v>250</v>
@@ -1795,12 +1795,12 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B71">
         <v>160</v>
@@ -1809,12 +1809,12 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -1823,12 +1823,12 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -1837,26 +1837,26 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75">
         <v>0.5</v>
@@ -1865,12 +1865,12 @@
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B76">
         <v>50</v>
@@ -1879,11 +1879,11 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D58">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D58">
     <sortCondition ref="A27:A58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flinders-my.sharepoint.com/personal/ocon0143_flinders_edu_au/Documents/Advn Mech Design Shared/6_Development/2_Design/inventor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A08B3AD3-E4D8-4543-B058-7A58B6D58647}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECBDC76-B125-4E8B-BF5E-C9AFE7250ABD}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="5310" windowWidth="21705" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="169">
   <si>
     <t>testLength</t>
   </si>
@@ -484,6 +484,54 @@
   </si>
   <si>
     <t>The hoop slider radius (actually the diameter, but names wierdly)</t>
+  </si>
+  <si>
+    <t>hoop_bushing12_thickness</t>
+  </si>
+  <si>
+    <t>hoop_bushing23_thickness</t>
+  </si>
+  <si>
+    <t>hoop_bushing12_od</t>
+  </si>
+  <si>
+    <t>hoop_bushing23_od</t>
+  </si>
+  <si>
+    <t>Outer Diameter of bushing between med and sml hoop</t>
+  </si>
+  <si>
+    <t>Outer Diameter of bushing between lrg and med hoop</t>
+  </si>
+  <si>
+    <t>Wall thickness of bushing between lrg and med hoop</t>
+  </si>
+  <si>
+    <t>Wall thickness of bushing between med and sml hoop</t>
+  </si>
+  <si>
+    <t>The radius of bushing12 minus the inner radius of lrg hoop gives the radial interference</t>
+  </si>
+  <si>
+    <t>hoop_bushing12_radialInterference</t>
+  </si>
+  <si>
+    <t>hoop_bushing23_radialInterference</t>
+  </si>
+  <si>
+    <t>The radius of bushing23 minus the inner radius of med hoop gives the radial interference</t>
+  </si>
+  <si>
+    <t>hoop_width_large-hoop_thickness_large*2+hoop_bushing12_radialInterference</t>
+  </si>
+  <si>
+    <t>hoop_width_medium-hoop_thickness_medium*2+hoop_bushing23_radialInterference</t>
+  </si>
+  <si>
+    <t>hoop_bushing12_od-hoop_width_medium-hoop_bushing12_radialInterference*2</t>
+  </si>
+  <si>
+    <t>hoop_bushing23_od-hoop_width_small-hoop_bushing23_radialInterference*2</t>
   </si>
 </sst>
 </file>
@@ -804,16 +852,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="110.42578125" customWidth="1"/>
   </cols>
@@ -1145,7 +1193,7 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
@@ -1159,7 +1207,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
@@ -1187,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
@@ -1198,217 +1246,217 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>30</v>
+        <v>155</v>
+      </c>
+      <c r="B28" t="s">
+        <v>165</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>167</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>166</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33">
-        <v>35</v>
+        <v>154</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B36">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>25.4</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B38">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>50</v>
@@ -1417,474 +1465,558 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B46">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="B50">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="B51">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B52">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B53">
-        <v>50</v>
+        <v>2.5</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="B56">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="B57">
-        <v>1.7</v>
+        <v>160</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="B58">
-        <v>1.5</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B59">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B62">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B63">
-        <v>635</v>
+        <v>100</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B64">
-        <v>1067</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B65">
-        <v>914</v>
+        <v>55</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B66">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B67">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="B68">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="B69">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B71">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="B75">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="B76">
-        <v>50</v>
+        <v>1.7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>1.5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78">
+        <v>914</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79">
+        <v>1067</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80">
+        <v>635</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81">
+        <v>280</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82">
+        <v>240</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D58">
-    <sortCondition ref="A27:A58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:D82">
+    <sortCondition ref="A28:A82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flinders-my.sharepoint.com/personal/ocon0143_flinders_edu_au/Documents/Advn Mech Design Shared/6_Development/2_Design/inventor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECBDC76-B125-4E8B-BF5E-C9AFE7250ABD}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19AF504B-7306-49D5-95CA-4FA370B07FFB}"/>
   <bookViews>
     <workbookView xWindow="7410" yWindow="5310" windowWidth="21705" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A32:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,338 +1036,338 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>165</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>450</v>
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>450</v>
+        <v>156</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="B17">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>200</v>
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B19">
-        <v>700</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B20">
-        <v>700</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>3300</v>
+        <v>450</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>3.2</v>
+        <v>200</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>700</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>51</v>
+        <v>700</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B27">
-        <v>33.700000000000003</v>
+        <v>600</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" t="s">
-        <v>165</v>
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>3300</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" t="s">
-        <v>167</v>
+        <v>117</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" t="s">
-        <v>166</v>
+        <v>115</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" t="s">
-        <v>168</v>
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>3.2</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>50</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2015,8 +2015,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:D82">
-    <sortCondition ref="A28:A82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D82">
+    <sortCondition ref="A27:A82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flinders-my.sharepoint.com/personal/ocon0143_flinders_edu_au/Documents/Advn Mech Design Shared/6_Development/2_Design/inventor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocon0143\OneDrive - Flinders\Advn Mech Design Shared\6_Development\2_Design\inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19AF504B-7306-49D5-95CA-4FA370B07FFB}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{117E1A7F-70FA-4D35-BF68-FD60CA05C84E}"/>
   <bookViews>
     <workbookView xWindow="7410" yWindow="5310" windowWidth="21705" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="177">
   <si>
     <t>testLength</t>
   </si>
@@ -532,6 +532,30 @@
   </si>
   <si>
     <t>hoop_bushing23_od-hoop_width_small-hoop_bushing23_radialInterference*2</t>
+  </si>
+  <si>
+    <t>wheelchatir_pos_deploy_angle_0</t>
+  </si>
+  <si>
+    <t>The angle of the member for the wheelchair when it is deployed for the first securing mechanism</t>
+  </si>
+  <si>
+    <t>wheelchatir_pos_store_angle_0</t>
+  </si>
+  <si>
+    <t>The angle of the member for the wheelchair when it is stored for the first securing mechanism</t>
+  </si>
+  <si>
+    <t>wheelchatir_pos_deploy_angle_1</t>
+  </si>
+  <si>
+    <t>The angle of the member for the wheelchair when it is deployed for the second securing mechanism</t>
+  </si>
+  <si>
+    <t>wheelchatir_pos_store_angle_1</t>
+  </si>
+  <si>
+    <t>The angle of the member for the wheelchair when it is stored for the second securing mechanism</t>
   </si>
 </sst>
 </file>
@@ -852,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A32:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1259,7 @@
         <v>77</v>
       </c>
       <c r="B27">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
@@ -1613,7 +1637,7 @@
         <v>135</v>
       </c>
       <c r="B54">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>6</v>
@@ -1837,7 +1861,7 @@
         <v>79</v>
       </c>
       <c r="B70">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>6</v>
@@ -2014,8 +2038,64 @@
         <v>123</v>
       </c>
     </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83">
+        <v>65</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84">
+        <v>90</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85">
+        <v>20</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86">
+        <v>20</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D82">
+  <sortState ref="A1:D82">
     <sortCondition ref="A27:A82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocon0143\OneDrive - Flinders\Advn Mech Design Shared\6_Development\2_Design\inventor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flinders-my.sharepoint.com/personal/ocon0143_flinders_edu_au/Documents/Advn Mech Design Shared/6_Development/2_Design/inventor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{117E1A7F-70FA-4D35-BF68-FD60CA05C84E}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15B42A3B-0185-4DB4-A842-6C452E034EE3}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="5310" windowWidth="21705" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9930" yWindow="345" windowWidth="21705" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -879,7 +879,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1553,7 @@
         <v>148</v>
       </c>
       <c r="B48">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>6</v>
@@ -2095,7 +2095,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D82">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D82">
     <sortCondition ref="A27:A82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inventor/params.xlsx
+++ b/inventor/params.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24223"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flinders-my.sharepoint.com/personal/ocon0143_flinders_edu_au/Documents/Advn Mech Design Shared/6_Development/2_Design/inventor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15B42A3B-0185-4DB4-A842-6C452E034EE3}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="5_{AB4A0EAB-D83D-47D6-9732-2EB1DFA43C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A162189C-2C77-4772-B22B-1EDBE893CF5D}"/>
   <bookViews>
     <workbookView xWindow="9930" yWindow="345" windowWidth="21705" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,6 +36,468 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="177">
   <si>
+    <t>cover_base_thickness</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>the thickness of the base plate of the cover</t>
+  </si>
+  <si>
+    <t>cover_height_main</t>
+  </si>
+  <si>
+    <t>The height of the cover from base side to ceiling</t>
+  </si>
+  <si>
+    <t>cover_length_main</t>
+  </si>
+  <si>
+    <t>The length of the cover in the x-direction from front of car to back</t>
+  </si>
+  <si>
+    <t>cover_mountHole_diameter</t>
+  </si>
+  <si>
+    <t>the diameter of the hole that bolts into the clamping device</t>
+  </si>
+  <si>
+    <t>cover_mountHole_xSpacing</t>
+  </si>
+  <si>
+    <t>the distance between the mountHoles in the x-dir. This corresponds to the spacing of the roof bars.</t>
+  </si>
+  <si>
+    <t>cover_mountHole_ySpacing</t>
+  </si>
+  <si>
+    <t>the distance between the mountHoles in the y-dir. This corresponds with the spacing between clamps on each roof bar.</t>
+  </si>
+  <si>
+    <t>cover_shell_thickness</t>
+  </si>
+  <si>
+    <t>the thickness of the top surface of the cover</t>
+  </si>
+  <si>
+    <t>cover_side_openSize</t>
+  </si>
+  <si>
+    <t>The characteristic maximum length of the opening of the cover side</t>
+  </si>
+  <si>
+    <t>cover_side_thickness</t>
+  </si>
+  <si>
+    <t>The thickness of the side of the cover</t>
+  </si>
+  <si>
+    <t>cover_width_main</t>
+  </si>
+  <si>
+    <t>The width of the cover from open side to closed side</t>
+  </si>
+  <si>
+    <t>hoop_angle_z</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>The angle about the z axis from the y axis of the car that the hoop direction points</t>
+  </si>
+  <si>
+    <t>hoop_bearing_length</t>
+  </si>
+  <si>
+    <t>The Degrees of a full circle that the bearing is</t>
+  </si>
+  <si>
+    <t>hoop_bushing12_od</t>
+  </si>
+  <si>
+    <t>hoop_width_large-hoop_thickness_large*2+hoop_bushing12_radialInterference</t>
+  </si>
+  <si>
+    <t>Outer Diameter of bushing between lrg and med hoop</t>
+  </si>
+  <si>
+    <t>hoop_bushing12_radialInterference</t>
+  </si>
+  <si>
+    <t>The radius of bushing12 minus the inner radius of lrg hoop gives the radial interference</t>
+  </si>
+  <si>
+    <t>hoop_bushing12_thickness</t>
+  </si>
+  <si>
+    <t>hoop_bushing12_od-hoop_width_medium-hoop_bushing12_radialInterference*2</t>
+  </si>
+  <si>
+    <t>Wall thickness of bushing between lrg and med hoop</t>
+  </si>
+  <si>
+    <t>hoop_bushing23_od</t>
+  </si>
+  <si>
+    <t>hoop_width_medium-hoop_thickness_medium*2+hoop_bushing23_radialInterference</t>
+  </si>
+  <si>
+    <t>Outer Diameter of bushing between med and sml hoop</t>
+  </si>
+  <si>
+    <t>hoop_bushing23_radialInterference</t>
+  </si>
+  <si>
+    <t>The radius of bushing23 minus the inner radius of med hoop gives the radial interference</t>
+  </si>
+  <si>
+    <t>hoop_bushing23_thickness</t>
+  </si>
+  <si>
+    <t>hoop_bushing23_od-hoop_width_small-hoop_bushing23_radialInterference*2</t>
+  </si>
+  <si>
+    <t>Wall thickness of bushing between med and sml hoop</t>
+  </si>
+  <si>
+    <t>hoop_cable_diam</t>
+  </si>
+  <si>
+    <t>The diameter of the steel cable used to actuate the small hoop</t>
+  </si>
+  <si>
+    <t>hoop_cable_pulley_diam</t>
+  </si>
+  <si>
+    <t>The diamter of the pulley used in the medium hoop to reduce cable wear</t>
+  </si>
+  <si>
+    <t>hoop_height_large</t>
+  </si>
+  <si>
+    <t>The vertical height of the large hoop from the base</t>
+  </si>
+  <si>
+    <t>hoop_height_medium</t>
+  </si>
+  <si>
+    <t>The vertical height of the medium hoop from the base</t>
+  </si>
+  <si>
+    <t>hoop_height_small</t>
+  </si>
+  <si>
+    <t>The vertical height of the small hoop from the base</t>
+  </si>
+  <si>
+    <t>hoop_length_large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The horizontal length of the large hoop </t>
+  </si>
+  <si>
+    <t>hoop_length_medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The horizontal length of the medium hoop </t>
+  </si>
+  <si>
+    <t>hoop_length_small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The horizontal length of the small hoop </t>
+  </si>
+  <si>
+    <t>hoop_offset_x</t>
+  </si>
+  <si>
+    <t>The distance from the front mounting hole in the x direction to the centre of the hoop support</t>
+  </si>
+  <si>
+    <t>hoop_radius_large</t>
+  </si>
+  <si>
+    <t>The hoop slider radius (actually the diameter, but names wierdly)</t>
+  </si>
+  <si>
+    <t>hoop_tabs_hole</t>
+  </si>
+  <si>
+    <t>The hole in the tab for bolts (fillets are based off this)</t>
+  </si>
+  <si>
+    <t>hoop_tabs_thickness</t>
+  </si>
+  <si>
+    <t>The thickness of the tabs</t>
+  </si>
+  <si>
+    <t>hoop_tabs_width</t>
+  </si>
+  <si>
+    <t>The width of the tabs for the hoop connectors (heights are based off this)</t>
+  </si>
+  <si>
+    <t>hoop_thickness_large</t>
+  </si>
+  <si>
+    <t>The thickness (outter - inner diams) of large hoop</t>
+  </si>
+  <si>
+    <t>hoop_thickness_medium</t>
+  </si>
+  <si>
+    <t>The thickness (outter - inner diams) of medium hoop</t>
+  </si>
+  <si>
+    <t>hoop_thickness_small</t>
+  </si>
+  <si>
+    <t>The thickness (outter - inner diams) of small hoop</t>
+  </si>
+  <si>
+    <t>hoop_width_large</t>
+  </si>
+  <si>
+    <t>The width (aka diameter) of large hoop</t>
+  </si>
+  <si>
+    <t>hoop_width_medium</t>
+  </si>
+  <si>
+    <t>The width (aka diameter) of medium hoop</t>
+  </si>
+  <si>
+    <t>hoop_width_small</t>
+  </si>
+  <si>
+    <t>The width (aka diameter) of small hoop</t>
+  </si>
+  <si>
+    <t>rack_tooth_addendum</t>
+  </si>
+  <si>
+    <t>See tooth diagram</t>
+  </si>
+  <si>
+    <t>rack_tooth_dedendum</t>
+  </si>
+  <si>
+    <t>rack_tooth_face_widh</t>
+  </si>
+  <si>
+    <t>rack_tooth_thickness</t>
+  </si>
+  <si>
+    <t>secure_arm_angle</t>
+  </si>
+  <si>
+    <t>The angle of the holder to the arm</t>
+  </si>
+  <si>
+    <t>secure_arm_hold_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The length of the holder to the wheelchair axle </t>
+  </si>
+  <si>
+    <t>secure_arm_hold_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The thickness of the holder to the wheelchair axle </t>
+  </si>
+  <si>
+    <t>secure_arm_length</t>
+  </si>
+  <si>
+    <t>The length of the arm that connects to the wheelchair axle</t>
+  </si>
+  <si>
+    <t>secure_arm_radii</t>
+  </si>
+  <si>
+    <t>The radius of the holder to the wheelchair axle</t>
+  </si>
+  <si>
+    <t>secure_arm_thickness</t>
+  </si>
+  <si>
+    <t>The thickness of the arm that connects to the wheelchair axle</t>
+  </si>
+  <si>
+    <t>sm_varx_member_tolerance</t>
+  </si>
+  <si>
+    <t>The difference bewteen the outer dimensions of the inner and outer square bars used in the sm_varx</t>
+  </si>
+  <si>
+    <t>sm_varx_pinPlate_aspectRatio</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>The l/w of the pin plate holding the sm_varx bars together</t>
+  </si>
+  <si>
+    <t>sm_varx_pinPlate_holeDiameter</t>
+  </si>
+  <si>
+    <t>The diameter of the pin hole on the pin plate holding the sm_varx bars together</t>
+  </si>
+  <si>
+    <t>sm_varx_pinPlate_thickness</t>
+  </si>
+  <si>
+    <t>The thickness of the pin plate holding the sm_varx bars together</t>
+  </si>
+  <si>
+    <t>sm_varx_squareBarDimension</t>
+  </si>
+  <si>
+    <t>The width of the square hollow bar used in the securing mechanism X variant</t>
+  </si>
+  <si>
+    <t>sm_varx_squareBarThickness</t>
+  </si>
+  <si>
+    <t>The thickness of the square hollow bar used in the securing mechanism X variant</t>
+  </si>
+  <si>
+    <t>sm_varx_x</t>
+  </si>
+  <si>
+    <t>The length of the xm arm in the x</t>
+  </si>
+  <si>
+    <t>sm_varx_x_arms</t>
+  </si>
+  <si>
+    <t>The x length of the arms that extend from the sm_varx to the wheelchair bars</t>
+  </si>
+  <si>
+    <t>sm_varx_y</t>
+  </si>
+  <si>
+    <t>The length of the xm arm in the y</t>
+  </si>
+  <si>
+    <t>sm_varx_z</t>
+  </si>
+  <si>
+    <t>The length of the xm arm in the z</t>
+  </si>
+  <si>
+    <t>support_baseClamp_lengthBuffer</t>
+  </si>
+  <si>
+    <t>The amount of material that extends axially along the ends of the base clamp from the hole edge to the end of the part</t>
+  </si>
+  <si>
+    <t>support_baseClamp_platformLengthBuffer</t>
+  </si>
+  <si>
+    <t>The amount of material that hangs over the side of the clamp in the Length direction</t>
+  </si>
+  <si>
+    <t>support_baseClamp_platformThickness</t>
+  </si>
+  <si>
+    <t>The thickness of the steel plate that is welded onto the top of the baseClamp</t>
+  </si>
+  <si>
+    <t>support_baseClamp_platformWidthBuffer</t>
+  </si>
+  <si>
+    <t>The amount of material that hangs over the side of the clamp in the width direction</t>
+  </si>
+  <si>
+    <t>support_baseClamp_sleeve_hole1Height</t>
+  </si>
+  <si>
+    <t>The height off the platform that the first lateral pin hole is situated</t>
+  </si>
+  <si>
+    <t>support_baseClamp_sleeve_hole2Height</t>
+  </si>
+  <si>
+    <t>The height off the platform that the second lateral pin hole is situated</t>
+  </si>
+  <si>
+    <t>support_baseClamp_sleeveHoleDiameter</t>
+  </si>
+  <si>
+    <t>The diameter of the holes that hold the pins constraining the sleeve to the hoop</t>
+  </si>
+  <si>
+    <t>support_baseClamp_sleeveSweepTerminationAngle</t>
+  </si>
+  <si>
+    <t>The angular displacement of the hoop sleeve sweep arc from the horizontal</t>
+  </si>
+  <si>
+    <t>support_baseClamp_sleeveThickness</t>
+  </si>
+  <si>
+    <t>The thickness of the sleeve holding the hoop</t>
+  </si>
+  <si>
+    <t>support_baseClamp_thickness</t>
+  </si>
+  <si>
+    <t>The thickness of the clamp that is to fit around the square bar</t>
+  </si>
+  <si>
+    <t>support_frame_clampHoleDiameter</t>
+  </si>
+  <si>
+    <t>The diameter of the cl;amping hole coonnecting the base part to the support frame</t>
+  </si>
+  <si>
+    <t>support_frame_clampHoleSpacing</t>
+  </si>
+  <si>
+    <t>The distance that the holes are on the support frame to accommodate the clamp holes</t>
+  </si>
+  <si>
+    <t>support_frame_endHoleBuffer</t>
+  </si>
+  <si>
+    <t>The length of material that is between the end holes of the frame member and the end of the member</t>
+  </si>
+  <si>
+    <t>support_frame_length</t>
+  </si>
+  <si>
+    <t>The length of the square bar</t>
+  </si>
+  <si>
+    <t>support_frame_squareBarDimension</t>
+  </si>
+  <si>
+    <t>The L and W of the square bar used for the support frame part</t>
+  </si>
+  <si>
+    <t>support_frame_squareBarFillet</t>
+  </si>
+  <si>
+    <t>The fillet radius of the oiuter edges of the square hollow bar used in the suport frame</t>
+  </si>
+  <si>
+    <t>support_frame_squareBarThickness</t>
+  </si>
+  <si>
+    <t>The thickness of the square hollow bar in the suport frame</t>
+  </si>
+  <si>
+    <t>testHeight</t>
+  </si>
+  <si>
+    <t>Test Height (ignore)</t>
+  </si>
+  <si>
     <t>testLength</t>
   </si>
   <si>
@@ -42,496 +513,34 @@
     <t>Test Width (ignore)</t>
   </si>
   <si>
-    <t>testHeight</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Test Height (ignore)</t>
-  </si>
-  <si>
-    <t>rack_tooth_thickness</t>
-  </si>
-  <si>
-    <t>See tooth diagram</t>
-  </si>
-  <si>
-    <t>rack_tooth_face_widh</t>
-  </si>
-  <si>
-    <t>rack_tooth_addendum</t>
-  </si>
-  <si>
-    <t>rack_tooth_dedendum</t>
-  </si>
-  <si>
-    <t>hoop_radius_large</t>
-  </si>
-  <si>
-    <t>hoop_width_large</t>
-  </si>
-  <si>
-    <t>The width (aka diameter) of large hoop</t>
-  </si>
-  <si>
-    <t>hoop_thickness_large</t>
-  </si>
-  <si>
-    <t>The thickness (outter - inner diams) of large hoop</t>
-  </si>
-  <si>
-    <t>hoop_width_medium</t>
-  </si>
-  <si>
-    <t>The width (aka diameter) of medium hoop</t>
-  </si>
-  <si>
-    <t>hoop_thickness_medium</t>
-  </si>
-  <si>
-    <t>The thickness (outter - inner diams) of medium hoop</t>
-  </si>
-  <si>
-    <t>hoop_width_small</t>
-  </si>
-  <si>
-    <t>The width (aka diameter) of small hoop</t>
-  </si>
-  <si>
-    <t>hoop_thickness_small</t>
-  </si>
-  <si>
-    <t>The thickness (outter - inner diams) of small hoop</t>
-  </si>
-  <si>
-    <t>hoop_height_large</t>
-  </si>
-  <si>
-    <t>The vertical height of the large hoop from the base</t>
-  </si>
-  <si>
-    <t>hoop_height_medium</t>
-  </si>
-  <si>
-    <t>The vertical height of the medium hoop from the base</t>
-  </si>
-  <si>
-    <t>hoop_height_small</t>
-  </si>
-  <si>
-    <t>The vertical height of the small hoop from the base</t>
-  </si>
-  <si>
-    <t>hoop_length_large</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The horizontal length of the large hoop </t>
-  </si>
-  <si>
-    <t>hoop_length_medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The horizontal length of the medium hoop </t>
-  </si>
-  <si>
-    <t>hoop_length_small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The horizontal length of the small hoop </t>
-  </si>
-  <si>
-    <t>cover_width_main</t>
-  </si>
-  <si>
-    <t>The width of the cover from open side to closed side</t>
-  </si>
-  <si>
-    <t>cover_height_main</t>
-  </si>
-  <si>
-    <t>The height of the cover from base side to ceiling</t>
-  </si>
-  <si>
-    <t>cover_length_main</t>
-  </si>
-  <si>
-    <t>The length of the cover in the x-direction from front of car to back</t>
-  </si>
-  <si>
-    <t>cover_shell_thickness</t>
-  </si>
-  <si>
-    <t>the thickness of the top surface of the cover</t>
-  </si>
-  <si>
-    <t>cover_base_thickness</t>
-  </si>
-  <si>
-    <t>the thickness of the base plate of the cover</t>
-  </si>
-  <si>
-    <t>cover_mountHole_diameter</t>
-  </si>
-  <si>
-    <t>the diameter of the hole that bolts into the clamping device</t>
-  </si>
-  <si>
-    <t>cover_mountHole_xSpacing</t>
-  </si>
-  <si>
-    <t>the distance between the mountHoles in the x-dir. This corresponds to the spacing of the roof bars.</t>
-  </si>
-  <si>
-    <t>cover_mountHole_ySpacing</t>
-  </si>
-  <si>
-    <t>the distance between the mountHoles in the y-dir. This corresponds with the spacing between clamps on each roof bar.</t>
-  </si>
-  <si>
-    <t>cover_side_thickness</t>
-  </si>
-  <si>
-    <t>The thickness of the side of the cover</t>
-  </si>
-  <si>
-    <t>cover_side_openSize</t>
-  </si>
-  <si>
-    <t>The characteristic maximum length of the opening of the cover side</t>
-  </si>
-  <si>
-    <t>hoop_bearing_length</t>
-  </si>
-  <si>
-    <t>deg</t>
-  </si>
-  <si>
-    <t>The Degrees of a full circle that the bearing is</t>
-  </si>
-  <si>
-    <t>secure_arm_length</t>
-  </si>
-  <si>
-    <t>The length of the arm that connects to the wheelchair axle</t>
-  </si>
-  <si>
-    <t>secure_arm_radii</t>
-  </si>
-  <si>
-    <t>The radius of the holder to the wheelchair axle</t>
-  </si>
-  <si>
-    <t>secure_arm_hold_length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The length of the holder to the wheelchair axle </t>
-  </si>
-  <si>
-    <t>secure_arm_hold_thickness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The thickness of the holder to the wheelchair axle </t>
-  </si>
-  <si>
-    <t>secure_arm_thickness</t>
-  </si>
-  <si>
-    <t>The thickness of the arm that connects to the wheelchair axle</t>
-  </si>
-  <si>
-    <t>secure_arm_angle</t>
-  </si>
-  <si>
-    <t>The angle of the holder to the arm</t>
-  </si>
-  <si>
-    <t>hoop_cable_diam</t>
-  </si>
-  <si>
-    <t>The diameter of the steel cable used to actuate the small hoop</t>
-  </si>
-  <si>
-    <t>hoop_cable_pulley_diam</t>
-  </si>
-  <si>
-    <t>The diamter of the pulley used in the medium hoop to reduce cable wear</t>
-  </si>
-  <si>
-    <t>hoop_offset_x</t>
-  </si>
-  <si>
-    <t>The distance from the front mounting hole in the x direction to the centre of the hoop support</t>
-  </si>
-  <si>
-    <t>support_frame_endHoleBuffer</t>
-  </si>
-  <si>
-    <t>The length of material that is between the end holes of the frame member and the end of the member</t>
-  </si>
-  <si>
-    <t>support_frame_clampHoleSpacing</t>
-  </si>
-  <si>
-    <t>The distance that the holes are on the support frame to accommodate the clamp holes</t>
-  </si>
-  <si>
-    <t>support_frame_squareBarDimension</t>
-  </si>
-  <si>
-    <t>The L and W of the square bar used for the support frame part</t>
-  </si>
-  <si>
-    <t>support_baseClamp_thickness</t>
-  </si>
-  <si>
-    <t>The thickness of the clamp that is to fit around the square bar</t>
-  </si>
-  <si>
-    <t>support_frame_length</t>
-  </si>
-  <si>
-    <t>The length of the square bar</t>
-  </si>
-  <si>
-    <t>support_baseClamp_lengthBuffer</t>
-  </si>
-  <si>
-    <t>The amount of material that extends axially along the ends of the base clamp from the hole edge to the end of the part</t>
-  </si>
-  <si>
-    <t>support_frame_clampHoleDiameter</t>
-  </si>
-  <si>
-    <t>The diameter of the cl;amping hole coonnecting the base part to the support frame</t>
-  </si>
-  <si>
-    <t>support_baseClamp_sleeveThickness</t>
-  </si>
-  <si>
-    <t>support_baseClamp_sleeveHoleDiameter</t>
-  </si>
-  <si>
-    <t>The diameter of the holes that hold the pins constraining the sleeve to the hoop</t>
-  </si>
-  <si>
-    <t>The thickness of the sleeve holding the hoop</t>
-  </si>
-  <si>
-    <t>hoop_angle_z</t>
-  </si>
-  <si>
-    <t>The angle about the z axis from the y axis of the car that the hoop direction points</t>
-  </si>
-  <si>
-    <t>support_baseClamp_sleeveSweepTerminationAngle</t>
-  </si>
-  <si>
-    <t>The angular displacement of the hoop sleeve sweep arc from the horizontal</t>
-  </si>
-  <si>
-    <t>support_baseClamp_platformThickness</t>
-  </si>
-  <si>
-    <t>The thickness of the steel plate that is welded onto the top of the baseClamp</t>
-  </si>
-  <si>
-    <t>support_baseClamp_platformLengthBuffer</t>
-  </si>
-  <si>
-    <t>The amount of material that hangs over the side of the clamp in the Length direction</t>
-  </si>
-  <si>
-    <t>The amount of material that hangs over the side of the clamp in the width direction</t>
-  </si>
-  <si>
-    <t>support_baseClamp_platformWidthBuffer</t>
-  </si>
-  <si>
-    <t>support_baseClamp_sleeve_hole1Height</t>
-  </si>
-  <si>
-    <t>support_baseClamp_sleeve_hole2Height</t>
-  </si>
-  <si>
-    <t>The height off the platform that the first lateral pin hole is situated</t>
-  </si>
-  <si>
-    <t>The height off the platform that the second lateral pin hole is situated</t>
-  </si>
-  <si>
-    <t>support_frame_squareBarThickness</t>
-  </si>
-  <si>
-    <t>The thickness of the square hollow bar in the suport frame</t>
-  </si>
-  <si>
-    <t>support_frame_squareBarFillet</t>
-  </si>
-  <si>
-    <t>The fillet radius of the oiuter edges of the square hollow bar used in the suport frame</t>
-  </si>
-  <si>
-    <t>hoop_tabs_width</t>
-  </si>
-  <si>
-    <t>The width of the tabs for the hoop connectors (heights are based off this)</t>
-  </si>
-  <si>
-    <t>hoop_tabs_thickness</t>
-  </si>
-  <si>
-    <t>The thickness of the tabs</t>
-  </si>
-  <si>
-    <t>hoop_tabs_hole</t>
-  </si>
-  <si>
-    <t>The hole in the tab for bolts (fillets are based off this)</t>
+    <t>wheelchair_deployed_height</t>
+  </si>
+  <si>
+    <t>The height of the wheelchair when it is fully deployed</t>
+  </si>
+  <si>
+    <t>wheelchair_deployed_length</t>
+  </si>
+  <si>
+    <t>The length of the wheelchair when it is fully deployed</t>
+  </si>
+  <si>
+    <t>wheelchair_deployed_width</t>
+  </si>
+  <si>
+    <t>The width of the wheelchair when it is fully deployed</t>
+  </si>
+  <si>
+    <t>wheelchair_folded_width</t>
+  </si>
+  <si>
+    <t>The width of the wheelchair when it is folded</t>
   </si>
   <si>
     <t>wheelchair_wheel_radius</t>
   </si>
   <si>
-    <t>wheelchair_deployed_width</t>
-  </si>
-  <si>
     <t>The radius of the wheel of the wheelchair</t>
-  </si>
-  <si>
-    <t>The width of the wheelchair when it is fully deployed</t>
-  </si>
-  <si>
-    <t>wheelchair_deployed_length</t>
-  </si>
-  <si>
-    <t>The length of the wheelchair when it is fully deployed</t>
-  </si>
-  <si>
-    <t>The height of the wheelchair when it is fully deployed</t>
-  </si>
-  <si>
-    <t>wheelchair_deployed_height</t>
-  </si>
-  <si>
-    <t>wheelchair_folded_width</t>
-  </si>
-  <si>
-    <t>The width of the wheelchair when it is folded</t>
-  </si>
-  <si>
-    <t>sm_varx_squareBarDimension</t>
-  </si>
-  <si>
-    <t>The width of the square hollow bar used in the securing mechanism X variant</t>
-  </si>
-  <si>
-    <t>sm_varx_squareBarThickness</t>
-  </si>
-  <si>
-    <t>The thickness of the square hollow bar used in the securing mechanism X variant</t>
-  </si>
-  <si>
-    <t>sm_varx_x</t>
-  </si>
-  <si>
-    <t>sm_varx_y</t>
-  </si>
-  <si>
-    <t>sm_varx_z</t>
-  </si>
-  <si>
-    <t>The length of the xm arm in the x</t>
-  </si>
-  <si>
-    <t>The length of the xm arm in the y</t>
-  </si>
-  <si>
-    <t>The length of the xm arm in the z</t>
-  </si>
-  <si>
-    <t>sm_varx_pinPlate_thickness</t>
-  </si>
-  <si>
-    <t>sm_varx_pinPlate_holeDiameter</t>
-  </si>
-  <si>
-    <t>sm_varx_pinPlate_aspectRatio</t>
-  </si>
-  <si>
-    <t>ul</t>
-  </si>
-  <si>
-    <t>The thickness of the pin plate holding the sm_varx bars together</t>
-  </si>
-  <si>
-    <t>The diameter of the pin hole on the pin plate holding the sm_varx bars together</t>
-  </si>
-  <si>
-    <t>The l/w of the pin plate holding the sm_varx bars together</t>
-  </si>
-  <si>
-    <t>sm_varx_member_tolerance</t>
-  </si>
-  <si>
-    <t>The difference bewteen the outer dimensions of the inner and outer square bars used in the sm_varx</t>
-  </si>
-  <si>
-    <t>sm_varx_x_arms</t>
-  </si>
-  <si>
-    <t>The x length of the arms that extend from the sm_varx to the wheelchair bars</t>
-  </si>
-  <si>
-    <t>The hoop slider radius (actually the diameter, but names wierdly)</t>
-  </si>
-  <si>
-    <t>hoop_bushing12_thickness</t>
-  </si>
-  <si>
-    <t>hoop_bushing23_thickness</t>
-  </si>
-  <si>
-    <t>hoop_bushing12_od</t>
-  </si>
-  <si>
-    <t>hoop_bushing23_od</t>
-  </si>
-  <si>
-    <t>Outer Diameter of bushing between med and sml hoop</t>
-  </si>
-  <si>
-    <t>Outer Diameter of bushing between lrg and med hoop</t>
-  </si>
-  <si>
-    <t>Wall thickness of bushing between lrg and med hoop</t>
-  </si>
-  <si>
-    <t>Wall thickness of bushing between med and sml hoop</t>
-  </si>
-  <si>
-    <t>The radius of bushing12 minus the inner radius of lrg hoop gives the radial interference</t>
-  </si>
-  <si>
-    <t>hoop_bushing12_radialInterference</t>
-  </si>
-  <si>
-    <t>hoop_bushing23_radialInterference</t>
-  </si>
-  <si>
-    <t>The radius of bushing23 minus the inner radius of med hoop gives the radial interference</t>
-  </si>
-  <si>
-    <t>hoop_width_large-hoop_thickness_large*2+hoop_bushing12_radialInterference</t>
-  </si>
-  <si>
-    <t>hoop_width_medium-hoop_thickness_medium*2+hoop_bushing23_radialInterference</t>
-  </si>
-  <si>
-    <t>hoop_bushing12_od-hoop_width_medium-hoop_bushing12_radialInterference*2</t>
-  </si>
-  <si>
-    <t>hoop_bushing23_od-hoop_width_small-hoop_bushing23_radialInterference*2</t>
   </si>
   <si>
     <t>wheelchatir_pos_deploy_angle_0</t>
@@ -562,7 +571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,7 +891,7 @@
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" customWidth="1"/>
@@ -890,1155 +899,1155 @@
     <col min="4" max="4" width="110.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>900</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2200</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>900</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>550</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>1400</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>1600</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>450</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>450</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>600</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>200</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>700</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>700</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>660</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>3300</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>3.2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <v>33.700000000000003</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <v>25.4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B42">
         <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B43">
         <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B44">
         <v>30</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B45">
         <v>300</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B46">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B47">
         <v>30</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B52">
         <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B53">
         <v>2.5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B54">
         <v>100</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="B55">
         <v>50</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B56">
         <v>250</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B57">
         <v>160</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B58">
         <v>40</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B59">
         <v>35</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B60">
         <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B62">
         <v>50</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B63">
         <v>100</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B64">
         <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B65">
         <v>55</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B66">
         <v>20</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B67">
         <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="B69">
         <v>100</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B70">
         <v>45</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="B71">
         <v>500</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="B72">
         <v>50</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="B74">
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="B75">
         <v>1000</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="B76">
         <v>1.7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="D76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="B77">
         <v>1.5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="D77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="B78">
         <v>914</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B79">
         <v>1067</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="B80">
         <v>635</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="B81">
         <v>280</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="B82">
         <v>240</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -2046,13 +2055,13 @@
         <v>65</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -2060,13 +2069,13 @@
         <v>90</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -2074,13 +2083,13 @@
         <v>20</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -2088,7 +2097,7 @@
         <v>20</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
         <v>176</v>
